--- a/实验结果/密立根油滴/数据.xlsx
+++ b/实验结果/密立根油滴/数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JerryYang\Documents\GitHub\physic-lab_II\实验结果\密立根油滴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78262C-A2D0-49D7-A618-E6A335A9DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE41ECA1-BCE4-4127-8BA4-E304119AD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="186" formatCode="0.000E+00"/>
-    <numFmt numFmtId="187" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000E+00"/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -510,12 +510,18 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -667,11 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -679,21 +680,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -977,7 +983,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -991,7 +997,7 @@
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1009,98 +1015,98 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="15">
         <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="15">
         <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="15">
         <v>1.8300000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="15">
         <v>8.2199999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="15">
         <v>100980</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="15">
         <v>1.602E-19</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1108,367 +1114,367 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>83</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>23.89</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="16">
         <f>18*PI()*$B$9/(SQRT(2*$B$4*$B$3)*E13)*($B$5*$B$6/(F13*(1+$B$7/$B$8*SQRT(2*$B$4*$B$3*F13/(9*$B$5*$B$6)))))^1.5</f>
         <v>9.0550830423483621E-19</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="17">
         <f>AVERAGE(G13:G17)</f>
         <v>9.5064115479533082E-19</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="18">
         <f>H13/$B$10</f>
         <v>5.9340896054639876</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="19">
         <f>ROUND(I13,0)</f>
         <v>6</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="17">
         <f>H13/J13</f>
         <v>1.5844019246588846E-19</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="20">
         <f>ABS(K13-$B$10)/$B$10*100</f>
         <v>1.0985065756002099</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="2"/>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
         <v>83</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="9">
         <v>22.61</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <f t="shared" ref="G14:G27" si="0">18*PI()*$B$9/(SQRT(2*$B$4*$B$3)*E14)*($B$5*$B$6/(F14*(1+$B$7/$B$8*SQRT(2*$B$4*$B$3*F14/(9*$B$5*$B$6)))))^1.5</f>
         <v>9.8737788259255361E-19</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="6"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="2"/>
-      <c r="D15" s="10">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
         <v>83</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="9">
         <v>22.57</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>9.9012818039343853E-19</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="6"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="2"/>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
         <v>83</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="9">
         <v>24.4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>8.7591439327701952E-19</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="6"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" s="3"/>
-      <c r="D17" s="11">
+      <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="6">
         <v>83</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="10">
         <v>22.51</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="26">
         <f t="shared" si="0"/>
         <v>9.9427701347880622E-19</v>
       </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="3:12">
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>139</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <v>26.9</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>4.4854089143407032E-19</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="17">
         <f t="shared" ref="H18:H23" si="1">AVERAGE(G18:G22)</f>
         <v>4.5977152758816867E-19</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="18">
         <f>H18/$B$10</f>
         <v>2.8699845667176573</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="19">
         <f>ROUND(I18,0)</f>
         <v>3</v>
       </c>
-      <c r="K18" s="25">
-        <f t="shared" ref="K14:K27" si="2">H18/J18</f>
+      <c r="K18" s="17">
+        <f t="shared" ref="K18:K23" si="2">H18/J18</f>
         <v>1.5325717586272288E-19</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" ref="L14:L27" si="3">ABS(K18-$B$10)/$B$10*100</f>
+      <c r="L18" s="20">
+        <f t="shared" ref="L18" si="3">ABS(K18-$B$10)/$B$10*100</f>
         <v>4.3338477760781009</v>
       </c>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="2"/>
-      <c r="D19" s="10">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="5">
         <v>139</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="9">
         <v>27</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>4.4592426183544317E-19</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="6"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="2"/>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="5">
         <v>137</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="9">
         <v>25.91</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>4.8279444296676925E-19</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="6"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="2"/>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <v>4</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <v>137</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="9">
         <v>26.4</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>4.6874992044937824E-19</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="6"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="3"/>
-      <c r="D22" s="11">
+      <c r="D22" s="6">
         <v>5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="6">
         <v>136</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="10">
         <v>27.11</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="26">
         <f t="shared" si="0"/>
         <v>4.5284812125518225E-19</v>
       </c>
       <c r="H22" s="27"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="20"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="4">
         <v>159</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="8">
         <v>24.17</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="16">
         <f t="shared" si="0"/>
         <v>4.6410228598206437E-19</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="17">
         <f t="shared" si="1"/>
         <v>4.5811728976087074E-19</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="18">
         <f>H23/$B$10</f>
         <v>2.8596584878955729</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="19">
         <f>ROUND(I23,0)</f>
         <v>3</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="17">
         <f t="shared" si="2"/>
         <v>1.5270576325362359E-19</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="20">
         <f>ABS(K23-$B$10)/$B$10*100</f>
         <v>4.6780504034809054</v>
       </c>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="2"/>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="5">
         <v>159</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="9">
         <v>23.21</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
         <v>4.9464192621963793E-19</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="6"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="2"/>
-      <c r="D25" s="10">
+      <c r="D25" s="5">
         <v>3</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="5">
         <v>159</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="9">
         <v>25.06</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
         <v>4.3842942360118142E-19</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="6"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="2"/>
-      <c r="D26" s="10">
+      <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="5">
         <v>159</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="9">
         <v>24.44</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="21">
         <f t="shared" si="0"/>
         <v>4.5606140956334719E-19</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="6"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="3"/>
-      <c r="D27" s="11">
+      <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="6">
         <v>158</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="10">
         <v>25.2</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="26">
         <f t="shared" si="0"/>
         <v>4.3735140343812318E-19</v>
       </c>
       <c r="H27" s="27"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="20"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
